--- a/April'21/30.04.2021/HD Capital Statement April-2021.xlsx
+++ b/April'21/30.04.2021/HD Capital Statement April-2021.xlsx
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
